--- a/modules/warehouse/uploads/file_sample/Sample_import_commodity_file_en_1.xlsx
+++ b/modules/warehouse/uploads/file_sample/Sample_import_commodity_file_en_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sofware\perfex_webapp\branches\perfex_development\perfex_webapp\modules\warehouse\uploads\file_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmaye\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD7684E-292D-4A9A-A263-ABF48ED318ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD22DC1A-081F-4BAD-9AAC-F33646DF420B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sku Code</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Tax2</t>
+  </si>
+  <si>
+    <t>thickness</t>
   </si>
 </sst>
 </file>
@@ -545,21 +548,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="20" width="33.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="3" customWidth="1"/>
-    <col min="22" max="23" width="22" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="21" width="33.54296875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.453125" style="3" customWidth="1"/>
+    <col min="23" max="24" width="22" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -621,12 +624,15 @@
         <v>14</v>
       </c>
       <c r="U1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
     </row>

--- a/modules/warehouse/uploads/file_sample/Sample_import_commodity_file_en_1.xlsx
+++ b/modules/warehouse/uploads/file_sample/Sample_import_commodity_file_en_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmaye\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD22DC1A-081F-4BAD-9AAC-F33646DF420B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAA2A4C-8485-4D11-9CE6-C12ACAD08FB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Sku Code</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>thickness</t>
+  </si>
+  <si>
+    <t>hsn code</t>
+  </si>
+  <si>
+    <t>paperwork</t>
   </si>
 </sst>
 </file>
@@ -548,21 +554,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="21" width="33.54296875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.453125" style="3" customWidth="1"/>
-    <col min="23" max="24" width="22" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="23" width="33.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="3" customWidth="1"/>
+    <col min="25" max="26" width="22" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -627,12 +633,18 @@
         <v>23</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
